--- a/Order Sheet EEE.XLSX
+++ b/Order Sheet EEE.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logan\Desktop\college work\EE318Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7803EC5C-2FE8-4959-B35A-0EF33072BDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5D211F-E465-4F54-B58C-728CFE0672D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Qty</t>
   </si>
@@ -107,20 +107,44 @@
     <t>Logan Noonan, Daniel Ofem, Cailean O'Reilly, Zhicheng Wang</t>
   </si>
   <si>
-    <t>Rapid</t>
-  </si>
-  <si>
-    <t>82-0192</t>
-  </si>
-  <si>
-    <t>Motor controller/driver L293D</t>
+    <t>555 Timer</t>
+  </si>
+  <si>
+    <t>221-5535</t>
+  </si>
+  <si>
+    <t>8 pin dip socket</t>
+  </si>
+  <si>
+    <t>674-2435</t>
+  </si>
+  <si>
+    <t>HC-05 Bluetooth module</t>
+  </si>
+  <si>
+    <t>logan.noonan.2022@uni.strath.ac.uk</t>
+  </si>
+  <si>
+    <t>Kitronik linear actuator kit</t>
+  </si>
+  <si>
+    <t>266-3753</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/dp/B0722MD4FY</t>
+  </si>
+  <si>
+    <t>In stock</t>
+  </si>
+  <si>
+    <t>Amazon.co.uk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +182,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -447,10 +479,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -461,7 +494,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -486,9 +518,64 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -498,7 +585,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -506,64 +592,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -902,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,44 +952,45 @@
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="44.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="36" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="17" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="37"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="5" t="s">
         <v>4</v>
       </c>
@@ -960,236 +999,272 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="8" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="41"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60">
+      <c r="A5" s="22">
         <v>1</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="20">
+        <v>4650</v>
+      </c>
+      <c r="J5" s="18">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="60">
+        <v>1</v>
+      </c>
+      <c r="B6" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="57">
-        <v>4500</v>
-      </c>
-      <c r="J5" s="52">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="2"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="20">
+        <v>2620</v>
+      </c>
+      <c r="J6" s="18">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="2"/>
+      <c r="A7" s="60">
+        <v>1</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="18">
+        <v>6.99</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="2"/>
+      <c r="A8" s="60">
+        <v>1</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="20">
+        <v>54</v>
+      </c>
+      <c r="J8" s="18">
+        <v>6.72</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="2"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="60"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="2"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="2"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="60"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="2"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="2"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="2"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="2"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="2"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="2"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="60"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="2"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="2"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="60"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="2"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="2"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="60"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="2"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="2"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="60"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="2"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="2"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="2"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="2"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="60"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="2"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="12"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="25"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="58" t="s">
         <v>22</v>
       </c>
@@ -1197,106 +1272,108 @@
       <c r="E20" s="58"/>
       <c r="F20" s="58"/>
       <c r="G20" s="58"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="59" t="s">
+      <c r="H20" s="45"/>
+      <c r="I20" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="52">
+      <c r="J20" s="18">
         <f>SUM(J5:J18)</f>
-        <v>3.16</v>
+        <v>14.120000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="14">
+      <c r="B21" s="51"/>
+      <c r="C21" s="13">
         <v>2024</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="15" t="s">
+      <c r="F21" s="42"/>
+      <c r="G21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="13">
         <v>24</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="9" t="s">
         <v>9</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="11" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="28"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
     </row>
     <row r="25" spans="1:10" ht="5.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="24"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1322,6 +1399,24 @@
     <row r="49" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:J1"/>
@@ -1338,28 +1433,13 @@
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C23" r:id="rId1" xr:uid="{AE153828-EFF3-4627-AAA3-CFB9BCE93FA7}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.35433070866141736" bottom="0.35433070866141736" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
